--- a/excel/问题一相关excel/添加比例的表单2处理.xlsx
+++ b/excel/问题一相关excel/添加比例的表单2处理.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deng'yu'hai\Desktop\2022国赛\2022_model\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74665A-31D2-414C-BFD7-20EC2097B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25812" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -21,17 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">表单1!$A$1:$E$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表单2!$A$1:$U$71</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -281,7 +265,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二氧化硅</t>
@@ -292,7 +275,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SiO</t>
     </r>
@@ -303,7 +286,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -313,7 +296,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -325,7 +308,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钠</t>
@@ -336,7 +318,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(Na</t>
     </r>
@@ -347,7 +329,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -357,7 +339,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O)</t>
     </r>
@@ -369,7 +351,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钾</t>
@@ -380,7 +361,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(K</t>
     </r>
@@ -391,7 +372,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -401,7 +382,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O)</t>
     </r>
@@ -413,7 +394,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钙</t>
@@ -424,7 +404,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(CaO)</t>
     </r>
@@ -436,7 +416,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化镁</t>
@@ -447,7 +426,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(MgO)</t>
     </r>
@@ -459,7 +438,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铝</t>
@@ -470,7 +448,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(Al</t>
     </r>
@@ -481,7 +459,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -491,7 +469,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -502,7 +480,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -512,7 +490,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -524,7 +502,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铁</t>
@@ -535,7 +512,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(Fe</t>
     </r>
@@ -546,7 +523,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -556,7 +533,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -567,7 +544,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -577,7 +554,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -589,7 +566,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铜</t>
@@ -600,7 +576,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(CuO)</t>
     </r>
@@ -612,7 +588,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铅</t>
@@ -623,7 +598,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(PbO)</t>
     </r>
@@ -635,7 +610,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钡</t>
@@ -646,7 +620,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(BaO)</t>
     </r>
@@ -658,7 +632,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>五氧化二磷</t>
@@ -669,7 +642,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(P</t>
     </r>
@@ -680,7 +653,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -690,7 +663,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -701,7 +674,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -711,7 +684,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -723,7 +696,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化锶</t>
@@ -734,7 +706,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SrO)</t>
     </r>
@@ -746,7 +718,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化锡</t>
@@ -757,7 +728,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SnO</t>
     </r>
@@ -768,7 +739,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -778,7 +749,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -790,7 +761,6 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二氧化硫</t>
@@ -801,7 +771,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SO</t>
     </r>
@@ -812,7 +782,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -822,7 +792,7 @@
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -831,82 +801,89 @@
     <t>成分求和</t>
   </si>
   <si>
+    <t>高钾的比例
+(区分风化)</t>
+  </si>
+  <si>
+    <t>铅钡的比例
+(区分风化)</t>
+  </si>
+  <si>
+    <t>29未风化点</t>
+  </si>
+  <si>
     <t>03部位1</t>
   </si>
   <si>
+    <t>28未风化点</t>
+  </si>
+  <si>
+    <t>06部位1</t>
+  </si>
+  <si>
     <t>03部位2</t>
   </si>
   <si>
-    <t>06部位1</t>
+    <t>44未风化点</t>
+  </si>
+  <si>
+    <t>53未风化点</t>
+  </si>
+  <si>
+    <t>49未风化点</t>
   </si>
   <si>
     <t>06部位2</t>
   </si>
   <si>
+    <t>23未风化点</t>
+  </si>
+  <si>
+    <t>42未风化点2</t>
+  </si>
+  <si>
+    <t>42未风化点1</t>
+  </si>
+  <si>
+    <t>25未风化点</t>
+  </si>
+  <si>
+    <t>50未风化点</t>
+  </si>
+  <si>
+    <t>30部位2</t>
+  </si>
+  <si>
+    <t>30部位1</t>
+  </si>
+  <si>
+    <t>51部位1</t>
+  </si>
+  <si>
+    <t>43部位2</t>
+  </si>
+  <si>
+    <t>51部位2</t>
+  </si>
+  <si>
+    <t>54严重风化点</t>
+  </si>
+  <si>
+    <t>43部位1</t>
+  </si>
+  <si>
     <t>08严重风化点</t>
   </si>
   <si>
-    <t>23未风化点</t>
-  </si>
-  <si>
-    <t>25未风化点</t>
-  </si>
-  <si>
     <t>26严重风化点</t>
   </si>
   <si>
-    <t>28未风化点</t>
-  </si>
-  <si>
-    <t>29未风化点</t>
-  </si>
-  <si>
-    <t>30部位1</t>
-  </si>
-  <si>
-    <t>30部位2</t>
-  </si>
-  <si>
-    <t>42未风化点1</t>
-  </si>
-  <si>
-    <t>42未风化点2</t>
-  </si>
-  <si>
-    <t>43部位1</t>
-  </si>
-  <si>
-    <t>43部位2</t>
-  </si>
-  <si>
-    <t>44未风化点</t>
-  </si>
-  <si>
-    <t>49未风化点</t>
-  </si>
-  <si>
-    <t>50未风化点</t>
-  </si>
-  <si>
-    <t>51部位1</t>
-  </si>
-  <si>
-    <t>51部位2</t>
-  </si>
-  <si>
-    <t>53未风化点</t>
-  </si>
-  <si>
-    <t>54严重风化点</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二氧化硅</t>
@@ -917,7 +894,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SiO</t>
     </r>
@@ -928,7 +905,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -938,7 +915,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -950,7 +927,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钠</t>
@@ -961,7 +937,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(Na</t>
     </r>
@@ -972,7 +948,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -982,7 +958,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O)</t>
     </r>
@@ -994,7 +970,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钾</t>
@@ -1005,7 +980,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(K</t>
     </r>
@@ -1016,7 +991,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1026,7 +1001,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O)</t>
     </r>
@@ -1038,7 +1013,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钙</t>
@@ -1049,7 +1023,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(CaO)</t>
     </r>
@@ -1061,7 +1035,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化镁</t>
@@ -1072,7 +1045,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(MgO)</t>
     </r>
@@ -1084,7 +1057,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铝</t>
@@ -1095,7 +1067,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(Al</t>
     </r>
@@ -1106,7 +1078,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1116,7 +1088,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -1127,7 +1099,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1137,7 +1109,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1149,7 +1121,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铁</t>
@@ -1160,7 +1131,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(Fe</t>
     </r>
@@ -1171,7 +1142,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1181,7 +1152,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -1192,7 +1163,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1202,7 +1173,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1214,7 +1185,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铜</t>
@@ -1225,7 +1195,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(CuO)</t>
     </r>
@@ -1237,7 +1207,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化铅</t>
@@ -1248,7 +1217,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(PbO)</t>
     </r>
@@ -1260,7 +1229,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化钡</t>
@@ -1271,7 +1239,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(BaO)</t>
     </r>
@@ -1283,7 +1251,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>五氧化二磷</t>
@@ -1294,7 +1261,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(P</t>
     </r>
@@ -1305,7 +1272,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1315,7 +1282,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -1326,7 +1293,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1336,7 +1303,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1348,7 +1315,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化锶</t>
@@ -1359,7 +1325,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SrO)</t>
     </r>
@@ -1371,7 +1337,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氧化锡</t>
@@ -1382,7 +1347,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SnO</t>
     </r>
@@ -1393,7 +1358,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1403,7 +1368,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1415,7 +1380,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二氧化硫</t>
@@ -1426,7 +1390,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(SO</t>
     </r>
@@ -1437,7 +1401,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1447,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1475,26 +1439,20 @@
   </si>
   <si>
     <t>A8</t>
-  </si>
-  <si>
-    <t>高钾的比例
-(区分风化)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>铅钡的比例
-(区分风化)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,7 +1465,6 @@
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1516,7 +1473,6 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1525,13 +1481,12 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1539,20 +1494,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1561,7 +1507,6 @@
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1569,20 +1514,18 @@
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1590,8 +1533,144 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1599,7 +1678,6 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1608,7 +1686,7 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1616,22 +1694,21 @@
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1641,18 +1718,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1675,13 +1932,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,10 +2205,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1721,73 +2217,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1803,19 +2349,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1829,7 +2369,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1435100" y="2745740"/>
+          <a:off x="1432560" y="2746375"/>
           <a:ext cx="0" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1864,19 +2404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1890,7 +2424,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1435100" y="2745740"/>
+          <a:off x="1432560" y="2746375"/>
           <a:ext cx="0" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1925,19 +2459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1951,7 +2479,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1435100" y="2745740"/>
+          <a:off x="1432560" y="2746375"/>
           <a:ext cx="0" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1986,19 +2514,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2012,7 +2534,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1435100" y="2745740"/>
+          <a:off x="1432560" y="2746375"/>
           <a:ext cx="0" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2316,27 +2838,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81481481481481" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="20" customWidth="1"/>
-    <col min="2" max="5" width="10.6328125" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="21"/>
+    <col min="1" max="1" width="10.6296296296296" style="27" customWidth="1"/>
+    <col min="2" max="5" width="10.6296296296296" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="8.81481481481481" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="26" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2353,1019 +2876,1022 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="17" t="s">
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="17" t="s">
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="17" t="s">
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="17" t="s">
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="17" t="s">
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="17" t="s">
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="17" t="s">
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="17" t="s">
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="17" t="s">
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17" t="s">
+      <c r="C59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
+  <autoFilter ref="A1:E59">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:K59">
     <sortCondition ref="A2:A59"/>
   </sortState>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81481481481481" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="4" width="12.6328125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="10.6328125" style="12" customWidth="1"/>
-    <col min="7" max="11" width="10.6328125" style="25" customWidth="1"/>
-    <col min="12" max="18" width="10.6328125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" style="12"/>
-    <col min="20" max="20" width="14.453125" style="12" customWidth="1"/>
-    <col min="21" max="21" width="14.90625" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="8.81640625" style="12"/>
+    <col min="1" max="4" width="12.6296296296296" style="10" customWidth="1"/>
+    <col min="5" max="6" width="10.6296296296296" style="11" customWidth="1"/>
+    <col min="7" max="11" width="10.6296296296296" style="12" customWidth="1"/>
+    <col min="12" max="18" width="10.6296296296296" style="11" customWidth="1"/>
+    <col min="19" max="19" width="8.81481481481481" style="11"/>
+    <col min="20" max="20" width="14.4537037037037" style="11" customWidth="1"/>
+    <col min="21" max="21" width="14.9074074074074" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="8.81481481481481" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" s="9" customFormat="1" ht="28.8" spans="1:21">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
@@ -3384,28 +3910,28 @@
       <c r="F1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="20" t="s">
         <v>88</v>
       </c>
       <c r="O1" s="15" t="s">
@@ -3423,41 +3949,43 @@
       <c r="S1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="T1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:20">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7">
         <v>96.77</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="24">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
         <v>0.92</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="19">
         <v>0.21</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19">
         <v>0.81</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="19">
         <v>0.26</v>
       </c>
       <c r="L2" s="7">
@@ -3470,25 +3998,25 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7">
-        <f>SUM(E2:R2)</f>
+        <f t="shared" ref="S2:S65" si="0">SUM(E2:R2)</f>
         <v>99.81</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="11">
         <f>E2/(G2+H2+I2+J2+K2)</f>
-        <v>43.986363636363635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>43.9863636363636</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:21">
+      <c r="A3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7">
@@ -3497,19 +4025,19 @@
       <c r="F3" s="7">
         <v>0.92</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="19">
         <v>0.3</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="19">
         <v>2.98</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="19">
         <v>1.49</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="19">
         <v>14.34</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="19">
         <v>0.81</v>
       </c>
       <c r="L3" s="7">
@@ -3519,7 +4047,7 @@
         <v>12.31</v>
       </c>
       <c r="N3" s="7">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="O3" s="7">
         <v>0.41</v>
@@ -3528,45 +4056,47 @@
         <v>0.25</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="18"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="7">
-        <f>SUM(E3:R3)</f>
+        <f t="shared" si="0"/>
         <v>99.88</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="12">
+      <c r="T3" s="9"/>
+      <c r="U3" s="11">
         <f>E3/(L3+M3+N3)</f>
-        <v>4.1976127320954904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+        <v>4.19761273209549</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>95.02</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="24">
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
         <v>0.59</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="19">
         <v>0.62</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19">
         <v>1.32</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="19">
         <v>0.32</v>
       </c>
       <c r="L4" s="7">
@@ -3581,40 +4111,44 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7">
-        <f>SUM(E4:R4)</f>
-        <v>99.769999999999982</v>
-      </c>
-      <c r="T4" s="12">
-        <f>E4/(G4+H4+I4+J4+K4)</f>
-        <v>33.340350877192982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>99.77</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" ref="T4:T10" si="1">E4/(G4+H4+I4+J4+K4)</f>
+        <v>33.340350877193</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:20">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="7">
         <v>92.63</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
         <v>1.07</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19">
         <v>1.98</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="19">
         <v>0.17</v>
       </c>
       <c r="L5" s="7">
@@ -3629,43 +4163,45 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7">
-        <f>SUM(E5:R5)</f>
-        <v>99.699999999999989</v>
-      </c>
-      <c r="T5" s="12">
-        <f>E5/(G5+H5+I5+J5+K5)</f>
-        <v>28.767080745341616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>99.7</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="1"/>
+        <v>28.7670807453416</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:20">
+      <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="7">
         <v>94.29</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="24">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
         <v>1.01</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="19">
         <v>0.72</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19">
         <v>1.46</v>
       </c>
-      <c r="K6" s="24">
-        <v>0.28999999999999998</v>
+      <c r="K6" s="19">
+        <v>0.29</v>
       </c>
       <c r="L6" s="7">
         <v>1.65</v>
@@ -3679,42 +4215,46 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7">
-        <f>SUM(E6:R6)</f>
-        <v>99.570000000000022</v>
-      </c>
-      <c r="T6" s="12">
-        <f>E6/(G6+H6+I6+J6+K6)</f>
-        <v>27.094827586206897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>99.57</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="1"/>
+        <v>27.0948275862069</v>
+      </c>
+    </row>
+    <row r="7" ht="13.2" spans="1:20">
+      <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7">
         <v>92.72</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24">
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
         <v>0.94</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>0.54</v>
       </c>
-      <c r="J7" s="24">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="K7" s="24">
+      <c r="J7" s="19">
+        <v>2.51</v>
+      </c>
+      <c r="K7" s="19">
         <v>0.2</v>
       </c>
       <c r="L7" s="7">
@@ -3729,48 +4269,50 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7">
-        <f>SUM(E7:R7)</f>
-        <v>98.810000000000016</v>
-      </c>
-      <c r="T7" s="12">
-        <f>E7/(G7+H7+I7+J7+K7)</f>
-        <v>22.128878281622914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.81</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="1"/>
+        <v>22.1288782816229</v>
+      </c>
+    </row>
+    <row r="8" ht="13.2" spans="1:20">
+      <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="7">
         <v>92.35</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="24">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
         <v>0.74</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="19">
         <v>1.66</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="19">
         <v>0.64</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="19">
         <v>3.5</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="19">
         <v>0.35</v>
       </c>
       <c r="L8" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -3781,25 +4323,25 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7">
-        <f>SUM(E8:R8)</f>
-        <v>99.999999999999972</v>
-      </c>
-      <c r="T8" s="12">
-        <f>E8/(G8+H8+I8+J8+K8)</f>
-        <v>13.403483309143686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="1"/>
+        <v>13.4034833091437</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="7">
@@ -3808,19 +4350,19 @@
       <c r="F9" s="7">
         <v>2.12</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="19">
         <v>5.71</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19">
         <v>0.85</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19">
         <v>1.04</v>
       </c>
       <c r="L9" s="7">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="M9" s="7">
         <v>0.19</v>
@@ -3835,44 +4377,46 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="18"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="7">
-        <f>SUM(E9:R9)</f>
+        <f t="shared" si="0"/>
         <v>71.89</v>
       </c>
-      <c r="T9" s="12">
-        <f>E9/(G9+H9+I9+J9+K9)</f>
-        <v>7.988157894736843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="T9" s="11">
+        <f t="shared" si="1"/>
+        <v>7.98815789473684</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7">
         <v>87.05</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="24">
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
         <v>5.19</v>
       </c>
-      <c r="H10" s="24">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="K10" s="24"/>
+      <c r="H10" s="19">
+        <v>2.01</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
+        <v>4.06</v>
+      </c>
+      <c r="K10" s="19"/>
       <c r="L10" s="7">
         <v>0.78</v>
       </c>
@@ -3887,44 +4431,44 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7">
-        <f>SUM(E10:R10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="T10" s="12">
-        <f>E10/(G10+H10+I10+J10+K10)</f>
-        <v>7.730905861456483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="T10" s="11">
+        <f t="shared" si="1"/>
+        <v>7.73090586145648</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="7">
-        <v>75.510000000000005</v>
+        <v>75.51</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="24">
+      <c r="G11" s="19">
         <v>0.15</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="19">
         <v>0.64</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="19">
         <v>1</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="19">
         <v>2.35</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="7">
         <v>0.47</v>
       </c>
@@ -3939,44 +4483,44 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="18"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="7">
-        <f>SUM(E11:R11)</f>
+        <f t="shared" si="0"/>
         <v>99.96</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="11">
         <f>E11/(L11+M11+N11)</f>
-        <v>3.7418235877106047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+        <v>3.7418235877106</v>
+      </c>
+    </row>
+    <row r="12" ht="13.2" spans="1:21">
+      <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="7">
         <v>65.91</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19">
         <v>1.6</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="19">
         <v>0.89</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="19">
         <v>3.11</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="19">
         <v>4.59</v>
       </c>
       <c r="L12" s="7">
@@ -3997,43 +4541,45 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7">
-        <f>SUM(E12:R12)</f>
-        <v>98.429999999999993</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="12">
+        <f t="shared" si="0"/>
+        <v>98.43</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="11">
         <f>E12/(L12+M12+N12)</f>
-        <v>3.2292993630573239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+        <v>3.22929936305732</v>
+      </c>
+    </row>
+    <row r="13" ht="13.2" spans="1:20">
+      <c r="A13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="7">
-        <v>79.459999999999994</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="24">
+        <v>79.46</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
         <v>9.42</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19">
         <v>1.53</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="19">
         <v>3.05</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -4041,49 +4587,53 @@
         <v>1.36</v>
       </c>
       <c r="P13" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="Q13" s="7">
         <v>2.36</v>
       </c>
-      <c r="R13" s="18"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="7">
-        <f>SUM(E13:R13)</f>
-        <v>97.249999999999986</v>
-      </c>
-      <c r="T13" s="12">
+        <f t="shared" si="0"/>
+        <v>97.25</v>
+      </c>
+      <c r="T13" s="11">
         <f>E13/(G13+H13+I13+J13+K13)</f>
-        <v>5.6757142857142853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+        <v>5.67571428571429</v>
+      </c>
+    </row>
+    <row r="14" ht="13.2" spans="1:20">
+      <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="7">
-        <v>76.680000000000007</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24">
+        <v>76.68</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
         <v>4.71</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="19">
         <v>1.22</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="19">
         <v>6.19</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="19">
         <v>2.37</v>
       </c>
       <c r="L14" s="7">
@@ -4096,50 +4646,50 @@
         <v>1.97</v>
       </c>
       <c r="O14" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7">
-        <f>SUM(E14:R14)</f>
+        <f t="shared" si="0"/>
         <v>98.52</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="11">
         <f>E14/(G14+H14+I14+J14+K14)</f>
-        <v>5.2919254658385091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="17" t="s">
+        <v>5.29192546583851</v>
+      </c>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="7">
         <v>68.08</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="24">
+      <c r="G15" s="19">
         <v>0.26</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="19">
         <v>1.34</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="19">
         <v>1</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="19">
         <v>4.7</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="19">
         <v>0.41</v>
       </c>
       <c r="L15" s="7">
@@ -4160,27 +4710,27 @@
       <c r="Q15" s="7">
         <v>0.23</v>
       </c>
-      <c r="R15" s="18"/>
+      <c r="R15" s="23"/>
       <c r="S15" s="7">
-        <f>SUM(E15:R15)</f>
-        <v>98.690000000000026</v>
-      </c>
-      <c r="U15" s="12">
+        <f t="shared" si="0"/>
+        <v>98.69</v>
+      </c>
+      <c r="U15" s="11">
         <f>E15/(L15+M15+N15)</f>
-        <v>3.1650395165039518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+        <v>3.16503951650395</v>
+      </c>
+    </row>
+    <row r="16" ht="13.2" spans="1:20">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="7">
@@ -4189,17 +4739,17 @@
       <c r="F16" s="7">
         <v>3.21</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="19">
         <v>7.44</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19">
         <v>1.02</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="19">
         <v>3.15</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="19">
         <v>1.04</v>
       </c>
       <c r="L16" s="7">
@@ -4216,46 +4766,48 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="18"/>
+      <c r="R16" s="23"/>
       <c r="S16" s="7">
-        <f>SUM(E16:R16)</f>
-        <v>79.470000000000013</v>
-      </c>
-      <c r="T16" s="12">
-        <f>E16/(G16+H16+I16+J16+K16)</f>
-        <v>4.8909090909090898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>79.47</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" ref="T16:T22" si="2">E16/(G16+H16+I16+J16+K16)</f>
+        <v>4.89090909090909</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="7">
         <v>69.33</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="24">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
         <v>9.99</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="19">
         <v>6.32</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="19">
         <v>0.87</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="19">
         <v>3.93</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="19">
         <v>1.74</v>
       </c>
       <c r="L17" s="7">
@@ -4272,46 +4824,48 @@
         <v>0.39</v>
       </c>
       <c r="S17" s="7">
-        <f>SUM(E17:R17)</f>
+        <f t="shared" si="0"/>
         <v>97.61</v>
       </c>
-      <c r="T17" s="12">
-        <f>E17/(G17+H17+I17+J17+K17)</f>
-        <v>3.0341356673960611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="T17" s="11">
+        <f t="shared" si="2"/>
+        <v>3.03413566739606</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="7">
-        <v>67.650000000000006</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="24">
+        <v>67.65</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
         <v>7.37</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19">
         <v>1.98</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="19">
         <v>11.15</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="19">
         <v>2.39</v>
       </c>
       <c r="L18" s="7">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="M18" s="7">
         <v>0.2</v>
@@ -4328,48 +4882,50 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7">
-        <f>SUM(E18:R18)</f>
-        <v>98.92000000000003</v>
-      </c>
-      <c r="T18" s="12">
-        <f>E18/(G18+H18+I18+J18+K18)</f>
-        <v>2.9554390563564876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.92</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="2"/>
+        <v>2.95543905635649</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="7">
         <v>65.88</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="24">
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
         <v>9.67</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="19">
         <v>7.12</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="19">
         <v>1.56</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="19">
         <v>6.44</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="19">
         <v>2.06</v>
       </c>
       <c r="L19" s="7">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -4382,44 +4938,46 @@
         <v>0.36</v>
       </c>
       <c r="S19" s="7">
-        <f>SUM(E19:R19)</f>
-        <v>96.060000000000016</v>
-      </c>
-      <c r="T19" s="12">
-        <f>E19/(G19+H19+I19+J19+K19)</f>
-        <v>2.453631284916201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>96.06</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4536312849162</v>
+      </c>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A20" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="7">
         <v>61.71</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="24">
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
         <v>12.37</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="19">
         <v>5.87</v>
       </c>
-      <c r="I20" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J20" s="24">
+      <c r="I20" s="19">
+        <v>1.11</v>
+      </c>
+      <c r="J20" s="19">
         <v>5.5</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="19">
         <v>2.16</v>
       </c>
       <c r="L20" s="7">
@@ -4440,46 +4998,46 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7">
-        <f>SUM(E20:R20)</f>
+        <f t="shared" si="0"/>
         <v>98.88</v>
       </c>
-      <c r="T20" s="12">
-        <f>E20/(G20+H20+I20+J20+K20)</f>
-        <v>2.284709366901148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="T20" s="11">
+        <f t="shared" si="2"/>
+        <v>2.28470936690115</v>
+      </c>
+    </row>
+    <row r="21" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="7">
-        <v>65.180000000000007</v>
+        <v>65.18</v>
       </c>
       <c r="F21" s="7">
         <v>2.1</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="19">
         <v>14.52</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="19">
         <v>8.27</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="19">
         <v>0.52</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="19">
         <v>6.18</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="19">
         <v>0.42</v>
       </c>
       <c r="L21" s="7">
@@ -4496,46 +5054,48 @@
         <v>0.04</v>
       </c>
       <c r="Q21" s="7"/>
-      <c r="R21" s="18"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="7">
-        <f>SUM(E21:R21)</f>
-        <v>98.409999999999982</v>
-      </c>
-      <c r="T21" s="12">
-        <f>E21/(G21+H21+I21+J21+K21)</f>
-        <v>2.1792042795051825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.41</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="2"/>
+        <v>2.17920427950518</v>
+      </c>
+    </row>
+    <row r="22" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="7">
         <v>61.58</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="24">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
         <v>10.95</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="19">
         <v>7.35</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="19">
         <v>1.77</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="19">
         <v>7.5</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="19">
         <v>2.62</v>
       </c>
       <c r="L22" s="7">
@@ -4554,25 +5114,25 @@
         <v>0.47</v>
       </c>
       <c r="S22" s="7">
-        <f>SUM(E22:R22)</f>
-        <v>96.509999999999991</v>
-      </c>
-      <c r="T22" s="12">
-        <f>E22/(G22+H22+I22+J22+K22)</f>
-        <v>2.0397482610135809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>96.51</v>
+      </c>
+      <c r="T22" s="11">
+        <f t="shared" si="2"/>
+        <v>2.03974826101358</v>
+      </c>
+    </row>
+    <row r="23" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="7">
@@ -4581,17 +5141,17 @@
       <c r="F23" s="7">
         <v>3.06</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="19">
         <v>0.2</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="19">
         <v>2.14</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19">
         <v>12.69</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="19">
         <v>0.77</v>
       </c>
       <c r="L23" s="7">
@@ -4608,52 +5168,52 @@
         <v>0.26</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="18"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="7">
-        <f>SUM(E23:R23)</f>
+        <f t="shared" si="0"/>
         <v>99.12</v>
       </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12">
+      <c r="T23" s="11"/>
+      <c r="U23" s="11">
         <f>E23/(L23+M23+N23)</f>
-        <v>3.1536863966770512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+        <v>3.15368639667705</v>
+      </c>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="7">
-        <v>69.709999999999994</v>
+        <v>69.71</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="24">
+      <c r="G24" s="19">
         <v>0.21</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="19">
         <v>0.46</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24">
+      <c r="I24" s="19"/>
+      <c r="J24" s="19">
         <v>2.36</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="19">
         <v>1</v>
       </c>
       <c r="L24" s="7">
         <v>0.11</v>
       </c>
       <c r="M24" s="7">
-        <v>19.760000000000002</v>
+        <v>19.76</v>
       </c>
       <c r="N24" s="7">
         <v>4.88</v>
@@ -4663,27 +5223,27 @@
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="18"/>
+      <c r="R24" s="23"/>
       <c r="S24" s="7">
-        <f>SUM(E24:R24)</f>
-        <v>98.659999999999982</v>
-      </c>
-      <c r="U24" s="12">
+        <f t="shared" si="0"/>
+        <v>98.66</v>
+      </c>
+      <c r="U24" s="11">
         <f>E24/(L24+M24+N24)</f>
-        <v>2.8165656565656563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+        <v>2.81656565656566</v>
+      </c>
+    </row>
+    <row r="25" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="7">
@@ -4692,19 +5252,19 @@
       <c r="F25" s="7">
         <v>3.38</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="19">
         <v>12.28</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="19">
         <v>8.23</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="19">
         <v>0.66</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="19">
         <v>9.23</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="19">
         <v>0.5</v>
       </c>
       <c r="L25" s="7">
@@ -4719,27 +5279,27 @@
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="18"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="7">
-        <f>SUM(E25:R25)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="11">
         <f>E25/(G25+H25+I25+J25+K25)</f>
-        <v>2.0216828478964404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+        <v>2.02168284789644</v>
+      </c>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="7">
@@ -4748,21 +5308,21 @@
       <c r="F26" s="7">
         <v>2.86</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="19">
         <v>12.53</v>
       </c>
-      <c r="H26" s="24">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24">
+      <c r="H26" s="19">
+        <v>8.7</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19">
         <v>6.16</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="19">
         <v>2.88</v>
       </c>
       <c r="L26" s="7">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -4771,27 +5331,27 @@
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="18"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="7">
-        <f>SUM(E26:R26)</f>
-        <v>98.139999999999986</v>
-      </c>
-      <c r="T26" s="12">
+        <f t="shared" si="0"/>
+        <v>98.14</v>
+      </c>
+      <c r="T26" s="11">
         <f>E26/(G26+H26+I26+J26+K26)</f>
-        <v>1.9494549058473738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="17" t="s">
+        <v>1.94945490584737</v>
+      </c>
+    </row>
+    <row r="27" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="7">
@@ -4800,19 +5360,19 @@
       <c r="F27" s="7">
         <v>3.04</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="19">
         <v>0.11</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="19">
         <v>0.78</v>
       </c>
-      <c r="I27" s="24">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="J27" s="24">
+      <c r="I27" s="19">
+        <v>1.14</v>
+      </c>
+      <c r="J27" s="19">
         <v>6.06</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="7">
         <v>0.54</v>
       </c>
@@ -4827,43 +5387,43 @@
         <v>0.27</v>
       </c>
       <c r="Q27" s="7"/>
-      <c r="R27" s="18"/>
+      <c r="R27" s="23"/>
       <c r="S27" s="7">
-        <f>SUM(E27:R27)</f>
+        <f t="shared" si="0"/>
         <v>98.25</v>
       </c>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11">
         <f>E27/(L27+M27+N27)</f>
-        <v>2.7451487710219924</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+        <v>2.74514877102199</v>
+      </c>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="7">
         <v>65.91</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24">
+      <c r="G28" s="19"/>
+      <c r="H28" s="19">
         <v>0.38</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19">
         <v>1.44</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="19">
         <v>0.17</v>
       </c>
       <c r="L28" s="7">
@@ -4880,46 +5440,46 @@
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="18"/>
+      <c r="R28" s="23"/>
       <c r="S28" s="7">
-        <f>SUM(E28:R28)</f>
+        <f t="shared" si="0"/>
         <v>96.21</v>
       </c>
-      <c r="U28" s="12">
+      <c r="U28" s="11">
         <f>E28/(L28+M28+N28)</f>
-        <v>2.3632126210111148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+        <v>2.36321262101111</v>
+      </c>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A29" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="7">
         <v>53.33</v>
       </c>
       <c r="F29" s="7">
         <v>0.8</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="19">
         <v>0.32</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="19">
         <v>2.82</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="19">
         <v>1.54</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="19">
         <v>13.65</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="19">
         <v>1.03</v>
       </c>
       <c r="L29" s="7"/>
@@ -4930,7 +5490,7 @@
         <v>7.31</v>
       </c>
       <c r="O29" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P29" s="7">
         <v>0.25</v>
@@ -4938,28 +5498,28 @@
       <c r="Q29" s="7">
         <v>1.31</v>
       </c>
-      <c r="R29" s="18"/>
+      <c r="R29" s="23"/>
       <c r="S29" s="7">
-        <f>SUM(E29:R29)</f>
-        <v>99.169999999999987</v>
-      </c>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12">
+        <f t="shared" si="0"/>
+        <v>99.17</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11">
         <f>E29/(L29+M29+N29)</f>
-        <v>2.3166811468288446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+        <v>2.31668114682884</v>
+      </c>
+    </row>
+    <row r="30" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="7">
@@ -4968,19 +5528,19 @@
       <c r="F30" s="7">
         <v>2.66</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="19">
         <v>0.11</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="19">
         <v>0.84</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="19">
         <v>0.74</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="19">
         <v>5</v>
       </c>
-      <c r="K30" s="24"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="7">
         <v>0.53</v>
       </c>
@@ -4995,47 +5555,47 @@
         <v>0.23</v>
       </c>
       <c r="Q30" s="7"/>
-      <c r="R30" s="18"/>
+      <c r="R30" s="23"/>
       <c r="S30" s="7">
-        <f>SUM(E30:R30)</f>
-        <v>98.339999999999989</v>
-      </c>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12">
+        <f t="shared" si="0"/>
+        <v>98.34</v>
+      </c>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11">
         <f>E30/(L30+M30+N30)</f>
-        <v>2.2299854439592433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="17" t="s">
+        <v>2.22998544395924</v>
+      </c>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A31" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="7">
         <v>54.61</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="24">
+      <c r="G31" s="19">
         <v>0.3</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="19">
         <v>2.08</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="19">
         <v>1.2</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="19">
         <v>6.5</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="19">
         <v>1.27</v>
       </c>
       <c r="L31" s="7">
@@ -5045,7 +5605,7 @@
         <v>23.02</v>
       </c>
       <c r="N31" s="7">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="O31" s="7">
         <v>4.32</v>
@@ -5054,51 +5614,53 @@
         <v>0.3</v>
       </c>
       <c r="Q31" s="7"/>
-      <c r="R31" s="18"/>
+      <c r="R31" s="23"/>
       <c r="S31" s="7">
-        <f>SUM(E31:R31)</f>
+        <f t="shared" si="0"/>
         <v>98.24</v>
       </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12">
+      <c r="T31" s="11"/>
+      <c r="U31" s="11">
         <f>E31/(L31+M31+N31)</f>
-        <v>1.9743311641359362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="17" t="s">
+        <v>1.97433116413594</v>
+      </c>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="13.2" spans="1:20">
+      <c r="A32" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="7">
         <v>59.81</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="24">
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
         <v>7.68</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="19">
         <v>5.41</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="19">
         <v>1.73</v>
       </c>
-      <c r="J32" s="24">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="K32" s="24">
+      <c r="J32" s="19">
+        <v>10.05</v>
+      </c>
+      <c r="K32" s="19">
         <v>6.04</v>
       </c>
       <c r="L32" s="7">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="M32" s="7">
         <v>0.35</v>
@@ -5115,47 +5677,47 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7">
-        <f>SUM(E32:R32)</f>
-        <v>98.840000000000018</v>
-      </c>
-      <c r="T32" s="12">
+        <f t="shared" si="0"/>
+        <v>98.84</v>
+      </c>
+      <c r="T32" s="11">
         <f>E32/(G32+H32+I32+J32+K32)</f>
-        <v>1.9349725008087999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+        <v>1.9349725008088</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A33" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="7">
         <v>60.12</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="24">
+      <c r="G33" s="19">
         <v>0.23</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="19">
         <v>0.89</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24">
+      <c r="I33" s="19"/>
+      <c r="J33" s="19">
         <v>2.72</v>
       </c>
-      <c r="K33" s="24"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="7">
         <v>3.01</v>
       </c>
       <c r="M33" s="7">
-        <v>17.239999999999998</v>
+        <v>17.24</v>
       </c>
       <c r="N33" s="7">
         <v>10.34</v>
@@ -5171,26 +5733,26 @@
         <v>3.66</v>
       </c>
       <c r="S33" s="7">
-        <f>SUM(E33:R33)</f>
-        <v>99.97999999999999</v>
-      </c>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12">
-        <f>E33/(L33+M33+N33)</f>
-        <v>1.9653481529911736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="8" t="s">
+        <f t="shared" si="0"/>
+        <v>99.98</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11">
+        <f t="shared" ref="U33:U70" si="3">E33/(L33+M33+N33)</f>
+        <v>1.96534815299117</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A34" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="7">
@@ -5199,17 +5761,17 @@
       <c r="F34" s="7">
         <v>7.92</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24">
+      <c r="G34" s="19"/>
+      <c r="H34" s="19">
         <v>0.5</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="19">
         <v>0.71</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="19">
         <v>1.42</v>
       </c>
-      <c r="K34" s="24"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="7">
         <v>2.99</v>
       </c>
@@ -5224,44 +5786,44 @@
         <v>0.33</v>
       </c>
       <c r="Q34" s="7"/>
-      <c r="R34" s="18"/>
+      <c r="R34" s="23"/>
       <c r="S34" s="7">
-        <f>SUM(E34:R34)</f>
+        <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
-      <c r="U34" s="12">
-        <f>E34/(L34+M34+N34)</f>
-        <v>1.6899151743638079</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="U34" s="11">
+        <f t="shared" si="3"/>
+        <v>1.68991517436381</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A35" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="7">
         <v>55.21</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="24">
+      <c r="G35" s="19">
         <v>0.25</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19">
         <v>1.67</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="19">
         <v>4.79</v>
       </c>
-      <c r="K35" s="24"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="7">
         <v>0.77</v>
       </c>
@@ -5278,28 +5840,28 @@
         <v>0.43</v>
       </c>
       <c r="Q35" s="7"/>
-      <c r="R35" s="18"/>
+      <c r="R35" s="23"/>
       <c r="S35" s="7">
-        <f>SUM(E35:R35)</f>
-        <v>98.63000000000001</v>
-      </c>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12">
-        <f>E35/(L35+M35+N35)</f>
-        <v>1.5302106430155211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>98.63</v>
+      </c>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11">
+        <f t="shared" si="3"/>
+        <v>1.53021064301552</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A36" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="7">
@@ -5308,17 +5870,17 @@
       <c r="F36" s="7">
         <v>5.68</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="19">
         <v>0.35</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="J36" s="24">
+      <c r="H36" s="19"/>
+      <c r="I36" s="19">
+        <v>1.16</v>
+      </c>
+      <c r="J36" s="19">
         <v>5.66</v>
       </c>
-      <c r="K36" s="24"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="7">
         <v>2.72</v>
       </c>
@@ -5331,28 +5893,28 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="18"/>
+      <c r="R36" s="23"/>
       <c r="S36" s="7">
-        <f>SUM(E36:R36)</f>
-        <v>97.899999999999991</v>
-      </c>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12">
-        <f>E36/(L36+M36+N36)</f>
-        <v>1.5222419928825623</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>97.9</v>
+      </c>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11">
+        <f t="shared" si="3"/>
+        <v>1.52224199288256</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="7">
@@ -5361,19 +5923,19 @@
       <c r="F37" s="7">
         <v>5.74</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="19">
         <v>0.15</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="19">
         <v>0.79</v>
       </c>
-      <c r="I37" s="24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J37" s="24">
+      <c r="I37" s="19">
+        <v>1.09</v>
+      </c>
+      <c r="J37" s="19">
         <v>3.53</v>
       </c>
-      <c r="K37" s="24"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="7">
         <v>2.67</v>
       </c>
@@ -5390,28 +5952,28 @@
         <v>0.35</v>
       </c>
       <c r="Q37" s="7"/>
-      <c r="R37" s="18"/>
+      <c r="R37" s="23"/>
       <c r="S37" s="7">
-        <f>SUM(E37:R37)</f>
-        <v>98.009999999999991</v>
-      </c>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12">
-        <f>E37/(L37+M37+N37)</f>
-        <v>1.4637350085665335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.01</v>
+      </c>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11">
+        <f t="shared" si="3"/>
+        <v>1.46373500856653</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A38" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="7">
@@ -5420,19 +5982,19 @@
       <c r="F38" s="7">
         <v>4.66</v>
       </c>
-      <c r="G38" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H38" s="24">
+      <c r="G38" s="19">
+        <v>0.29</v>
+      </c>
+      <c r="H38" s="19">
         <v>0.87</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="19">
         <v>0.61</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="19">
         <v>3.06</v>
       </c>
-      <c r="K38" s="24"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="7">
         <v>0.65</v>
       </c>
@@ -5449,28 +6011,28 @@
         <v>0.85</v>
       </c>
       <c r="Q38" s="7"/>
-      <c r="R38" s="18"/>
+      <c r="R38" s="23"/>
       <c r="S38" s="7">
-        <f>SUM(E38:R38)</f>
-        <v>97.259999999999991</v>
-      </c>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12">
-        <f>E38/(L38+M38+N38)</f>
-        <v>1.4608843537414966</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>97.26</v>
+      </c>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11">
+        <f t="shared" si="3"/>
+        <v>1.4608843537415</v>
+      </c>
+    </row>
+    <row r="39" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A39" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="7">
@@ -5479,19 +6041,19 @@
       <c r="F39" s="7">
         <v>2.31</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24">
+      <c r="G39" s="19"/>
+      <c r="H39" s="19">
         <v>0.63</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24">
+      <c r="I39" s="19"/>
+      <c r="J39" s="19">
         <v>1.9</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="19">
         <v>1.55</v>
       </c>
       <c r="L39" s="7">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="M39" s="7">
         <v>31.9</v>
@@ -5506,44 +6068,44 @@
         <v>0.2</v>
       </c>
       <c r="Q39" s="7"/>
-      <c r="R39" s="18"/>
+      <c r="R39" s="23"/>
       <c r="S39" s="7">
-        <f>SUM(E39:R39)</f>
+        <f t="shared" si="0"/>
         <v>97.06</v>
       </c>
-      <c r="U39" s="12">
-        <f>E39/(L39+M39+N39)</f>
-        <v>1.275775144945803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="U39" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2757751449458</v>
+      </c>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A40" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="7">
         <v>45.02</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19">
         <v>3.12</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="19">
         <v>0.54</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="19">
         <v>4.16</v>
       </c>
-      <c r="K40" s="24"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="7">
         <v>0.7</v>
       </c>
@@ -5560,28 +6122,28 @@
         <v>0.23</v>
       </c>
       <c r="Q40" s="7"/>
-      <c r="R40" s="18"/>
+      <c r="R40" s="23"/>
       <c r="S40" s="7">
-        <f>SUM(E40:R40)</f>
-        <v>96.940000000000012</v>
-      </c>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12">
-        <f>E40/(L40+M40+N40)</f>
-        <v>1.1995736743938183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>96.94</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11">
+        <f t="shared" si="3"/>
+        <v>1.19957367439382</v>
+      </c>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="13.2" spans="1:21">
+      <c r="A41" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="7">
@@ -5590,15 +6152,15 @@
       <c r="F41" s="7">
         <v>2.71</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24">
+      <c r="G41" s="19"/>
+      <c r="H41" s="19">
+        <v>1.13</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19">
         <v>1.45</v>
       </c>
-      <c r="K41" s="24"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="7">
         <v>0.86</v>
       </c>
@@ -5613,50 +6175,50 @@
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="18"/>
+      <c r="R41" s="23"/>
       <c r="S41" s="7">
-        <f>SUM(E41:R41)</f>
-        <v>96.38000000000001</v>
-      </c>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12">
-        <f>E41/(L41+M41+N41)</f>
-        <v>1.1744548286604359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>96.38</v>
+      </c>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11">
+        <f t="shared" si="3"/>
+        <v>1.17445482866044</v>
+      </c>
+    </row>
+    <row r="42" ht="13.2" spans="1:21">
+      <c r="A42" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="7">
         <v>37.36</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="24">
+      <c r="G42" s="19">
         <v>0.71</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24">
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19">
         <v>5.45</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="19">
         <v>1.51</v>
       </c>
       <c r="L42" s="7">
         <v>4.78</v>
       </c>
       <c r="M42" s="7">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="N42" s="7">
         <v>23.55</v>
@@ -5668,43 +6230,43 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7">
-        <f>SUM(E42:R42)</f>
+        <f t="shared" si="0"/>
         <v>88.41</v>
       </c>
-      <c r="T42" s="10"/>
-      <c r="U42" s="12">
-        <f>E42/(L42+M42+N42)</f>
-        <v>0.99282487377092732</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="T42" s="9"/>
+      <c r="U42" s="11">
+        <f t="shared" si="3"/>
+        <v>0.992824873770927</v>
+      </c>
+    </row>
+    <row r="43" ht="13.2" spans="1:21">
+      <c r="A43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="7">
         <v>36.93</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24">
+      <c r="G43" s="19"/>
+      <c r="H43" s="19">
         <v>4.24</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="19">
         <v>0.51</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="19">
         <v>3.86</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="19">
         <v>2.74</v>
       </c>
       <c r="L43" s="7"/>
@@ -5723,47 +6285,47 @@
       <c r="Q43" s="7">
         <v>0.44</v>
       </c>
-      <c r="R43" s="18"/>
+      <c r="R43" s="23"/>
       <c r="S43" s="7">
-        <f>SUM(E43:R43)</f>
+        <f t="shared" si="0"/>
         <v>98.7</v>
       </c>
-      <c r="T43" s="10"/>
-      <c r="U43" s="12">
-        <f>E43/(L43+M43+N43)</f>
-        <v>0.76793512164691202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="T43" s="9"/>
+      <c r="U43" s="11">
+        <f t="shared" si="3"/>
+        <v>0.767935121646912</v>
+      </c>
+    </row>
+    <row r="44" ht="13.2" spans="1:21">
+      <c r="A44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="7">
         <v>36.28</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="24">
+      <c r="G44" s="19">
         <v>1.05</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="19">
         <v>2.34</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="19">
         <v>1.18</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="19">
         <v>5.73</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K44" s="19">
         <v>1.86</v>
       </c>
       <c r="L44" s="7">
@@ -5782,44 +6344,44 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7">
-        <f>SUM(E44:R44)</f>
-        <v>99.889999999999986</v>
-      </c>
-      <c r="U44" s="12">
-        <f>E44/(L44+M44+N44)</f>
-        <v>0.76074648773327747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>99.89</v>
+      </c>
+      <c r="U44" s="11">
+        <f t="shared" si="3"/>
+        <v>0.760746487733277</v>
+      </c>
+    </row>
+    <row r="45" ht="13.2" spans="1:21">
+      <c r="A45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="7">
-        <v>33.590000000000003</v>
+        <v>33.59</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="24">
+      <c r="G45" s="19">
         <v>0.21</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="19">
         <v>3.51</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="19">
         <v>0.71</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="19">
         <v>2.69</v>
       </c>
-      <c r="K45" s="24"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="7">
         <v>4.93</v>
       </c>
@@ -5830,7 +6392,7 @@
         <v>14.61</v>
       </c>
       <c r="O45" s="7">
-        <v>9.3800000000000008</v>
+        <v>9.38</v>
       </c>
       <c r="P45" s="7">
         <v>0.37</v>
@@ -5838,45 +6400,45 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7">
-        <f>SUM(E45:R45)</f>
+        <f t="shared" si="0"/>
         <v>95.39</v>
       </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="12">
-        <f>E45/(L45+M45+N45)</f>
-        <v>0.74760738927220127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="T45" s="9"/>
+      <c r="U45" s="11">
+        <f t="shared" si="3"/>
+        <v>0.747607389272201</v>
+      </c>
+    </row>
+    <row r="46" ht="13.2" spans="1:21">
+      <c r="A46" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="7">
         <v>39.57</v>
       </c>
       <c r="F46" s="7">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G46" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H46" s="24">
+        <v>2.22</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0.14</v>
+      </c>
+      <c r="H46" s="19">
         <v>0.37</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24">
+      <c r="I46" s="19"/>
+      <c r="J46" s="19">
         <v>1.6</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="19">
         <v>0.32</v>
       </c>
       <c r="L46" s="7">
@@ -5889,50 +6451,50 @@
         <v>10.83</v>
       </c>
       <c r="O46" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="P46" s="7">
         <v>0.22</v>
       </c>
       <c r="Q46" s="7"/>
-      <c r="R46" s="18"/>
+      <c r="R46" s="23"/>
       <c r="S46" s="7">
-        <f>SUM(E46:R46)</f>
-        <v>97.629999999999981</v>
-      </c>
-      <c r="U46" s="12">
-        <f>E46/(L46+M46+N46)</f>
-        <v>0.74491716867469882</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>97.63</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="3"/>
+        <v>0.744917168674699</v>
+      </c>
+    </row>
+    <row r="47" ht="13.2" spans="1:21">
+      <c r="A47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="7">
         <v>28.79</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19">
         <v>4.58</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="19">
         <v>1.47</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="19">
         <v>5.38</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="19">
         <v>2.74</v>
       </c>
       <c r="L47" s="7">
@@ -5951,46 +6513,46 @@
         <v>0.46</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="18"/>
+      <c r="R47" s="23"/>
       <c r="S47" s="7">
-        <f>SUM(E47:R47)</f>
-        <v>95.499999999999986</v>
-      </c>
-      <c r="U47" s="12">
-        <f>E47/(L47+M47+N47)</f>
-        <v>0.70253782332845283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>95.5</v>
+      </c>
+      <c r="U47" s="11">
+        <f t="shared" si="3"/>
+        <v>0.702537823328453</v>
+      </c>
+    </row>
+    <row r="48" ht="13.2" spans="1:21">
+      <c r="A48" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="7">
-        <v>34.340000000000003</v>
+        <v>34.34</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="24">
+      <c r="G48" s="19">
         <v>1.41</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="19">
         <v>4.49</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="19">
         <v>0.98</v>
       </c>
-      <c r="J48" s="24">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K48" s="24">
+      <c r="J48" s="19">
+        <v>4.35</v>
+      </c>
+      <c r="K48" s="19">
         <v>2.12</v>
       </c>
       <c r="L48" s="7"/>
@@ -6007,45 +6569,45 @@
       <c r="Q48" s="7">
         <v>0.4</v>
       </c>
-      <c r="R48" s="18"/>
+      <c r="R48" s="23"/>
       <c r="S48" s="7">
-        <f>SUM(E48:R48)</f>
-        <v>97.949999999999989</v>
-      </c>
-      <c r="T48" s="10"/>
-      <c r="U48" s="12">
-        <f>E48/(L48+M48+N48)</f>
-        <v>0.69359725308018594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>97.95</v>
+      </c>
+      <c r="T48" s="9"/>
+      <c r="U48" s="11">
+        <f t="shared" si="3"/>
+        <v>0.693597253080186</v>
+      </c>
+    </row>
+    <row r="49" ht="13.2" spans="1:21">
+      <c r="A49" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="17" t="s">
+      <c r="B49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="7">
         <v>35.78</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="24">
+      <c r="G49" s="19">
         <v>0.25</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="19">
         <v>0.78</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24">
+      <c r="I49" s="19"/>
+      <c r="J49" s="19">
         <v>1.62</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="19">
         <v>0.47</v>
       </c>
       <c r="L49" s="7">
@@ -6064,45 +6626,45 @@
         <v>0.22</v>
       </c>
       <c r="Q49" s="7"/>
-      <c r="R49" s="18"/>
+      <c r="R49" s="23"/>
       <c r="S49" s="7">
-        <f>SUM(E49:R49)</f>
+        <f t="shared" si="0"/>
         <v>97.52</v>
       </c>
-      <c r="T49" s="10"/>
-      <c r="U49" s="12">
-        <f>E49/(L49+M49+N49)</f>
-        <v>0.61625904236996221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="T49" s="9"/>
+      <c r="U49" s="11">
+        <f t="shared" si="3"/>
+        <v>0.616259042369962</v>
+      </c>
+    </row>
+    <row r="50" ht="13.2" spans="1:21">
+      <c r="A50" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="7">
         <v>30.39</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="24">
+      <c r="G50" s="19">
         <v>0.34</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="19">
         <v>3.49</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="19">
         <v>0.79</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="19">
         <v>3.52</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="19">
         <v>0.86</v>
       </c>
       <c r="L50" s="7">
@@ -6123,40 +6685,40 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7">
-        <f>SUM(E50:R50)</f>
-        <v>98.759999999999991</v>
-      </c>
-      <c r="U50" s="12">
-        <f>E50/(L50+M50+N50)</f>
-        <v>0.60610291184682885</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.76</v>
+      </c>
+      <c r="U50" s="11">
+        <f t="shared" si="3"/>
+        <v>0.606102911846829</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1" spans="1:21">
+      <c r="A51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="17" t="s">
+      <c r="B51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="7">
         <v>29.64</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24">
+      <c r="G51" s="19"/>
+      <c r="H51" s="19">
         <v>2.93</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="19">
         <v>0.59</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="19">
         <v>3.57</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K51" s="19">
         <v>1.33</v>
       </c>
       <c r="L51" s="7">
@@ -6177,26 +6739,26 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7">
-        <f>SUM(E51:R51)</f>
-        <v>98.759999999999991</v>
-      </c>
-      <c r="T51" s="10"/>
-      <c r="U51" s="12">
-        <f>E51/(L51+M51+N51)</f>
-        <v>0.57352941176470584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.76</v>
+      </c>
+      <c r="T51" s="9"/>
+      <c r="U51" s="11">
+        <f t="shared" si="3"/>
+        <v>0.573529411764706</v>
+      </c>
+    </row>
+    <row r="52" ht="13.2" spans="1:21">
+      <c r="A52" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E52" s="7">
@@ -6205,16 +6767,16 @@
       <c r="F52" s="7">
         <v>1.38</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19">
         <v>0.68</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24">
+      <c r="I52" s="19"/>
+      <c r="J52" s="19">
         <v>2.57</v>
       </c>
-      <c r="K52" s="24">
-        <v>0.28999999999999998</v>
+      <c r="K52" s="19">
+        <v>0.29</v>
       </c>
       <c r="L52" s="7">
         <v>0.73</v>
@@ -6223,7 +6785,7 @@
         <v>49.31</v>
       </c>
       <c r="N52" s="7">
-        <v>9.7899999999999991</v>
+        <v>9.79</v>
       </c>
       <c r="O52" s="7">
         <v>0.48</v>
@@ -6232,42 +6794,42 @@
         <v>0.41</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="18"/>
+      <c r="R52" s="23"/>
       <c r="S52" s="7">
-        <f>SUM(E52:R52)</f>
-        <v>98.570000000000007</v>
-      </c>
-      <c r="U52" s="12">
-        <f>E52/(L52+M52+N52)</f>
-        <v>0.5503927795420358</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.57</v>
+      </c>
+      <c r="U52" s="11">
+        <f t="shared" si="3"/>
+        <v>0.550392779542036</v>
+      </c>
+    </row>
+    <row r="53" ht="13.2" spans="1:21">
+      <c r="A53" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="7">
         <v>29.15</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24">
+      <c r="G53" s="19"/>
+      <c r="H53" s="19">
         <v>1.21</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24">
+      <c r="I53" s="19"/>
+      <c r="J53" s="19">
         <v>1.85</v>
       </c>
-      <c r="K53" s="24"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="7">
         <v>0.79</v>
       </c>
@@ -6282,44 +6844,44 @@
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="18"/>
+      <c r="R53" s="23"/>
       <c r="S53" s="7">
-        <f>SUM(E53:R53)</f>
-        <v>92.240000000000009</v>
-      </c>
-      <c r="U53" s="12">
-        <f>E53/(L53+M53+N53)</f>
-        <v>0.50704470342668295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>92.24</v>
+      </c>
+      <c r="U53" s="11">
+        <f t="shared" si="3"/>
+        <v>0.507044703426683</v>
+      </c>
+    </row>
+    <row r="54" ht="13.2" spans="1:21">
+      <c r="A54" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="7">
         <v>31.94</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24">
+      <c r="G54" s="19"/>
+      <c r="H54" s="19">
         <v>0.47</v>
       </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24">
+      <c r="I54" s="19"/>
+      <c r="J54" s="19">
         <v>1.59</v>
       </c>
-      <c r="K54" s="24"/>
+      <c r="K54" s="19"/>
       <c r="L54" s="7">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="M54" s="7">
         <v>29.14</v>
@@ -6328,7 +6890,7 @@
         <v>26.23</v>
       </c>
       <c r="O54" s="7">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="P54" s="7">
         <v>0.91</v>
@@ -6336,43 +6898,43 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7">
-        <f>SUM(E54:R54)</f>
-        <v>98.88000000000001</v>
-      </c>
-      <c r="T54" s="10"/>
-      <c r="U54" s="12">
-        <f>E54/(L54+M54+N54)</f>
-        <v>0.50039166536111546</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>98.88</v>
+      </c>
+      <c r="T54" s="9"/>
+      <c r="U54" s="11">
+        <f t="shared" si="3"/>
+        <v>0.500391665361115</v>
+      </c>
+    </row>
+    <row r="55" ht="13.2" spans="1:21">
+      <c r="A55" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="7">
         <v>24.61</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24">
+      <c r="G55" s="19"/>
+      <c r="H55" s="19">
         <v>3.58</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="19">
         <v>1.19</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="19">
         <v>5.25</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="19">
         <v>1.19</v>
       </c>
       <c r="L55" s="7">
@@ -6393,27 +6955,27 @@
       <c r="Q55" s="7">
         <v>0.47</v>
       </c>
-      <c r="R55" s="18"/>
+      <c r="R55" s="23"/>
       <c r="S55" s="7">
-        <f>SUM(E55:R55)</f>
-        <v>95.329999999999984</v>
-      </c>
-      <c r="U55" s="12">
-        <f>E55/(L55+M55+N55)</f>
-        <v>0.48684470820969339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>95.33</v>
+      </c>
+      <c r="U55" s="11">
+        <f t="shared" si="3"/>
+        <v>0.486844708209693</v>
+      </c>
+    </row>
+    <row r="56" ht="13.2" spans="1:21">
+      <c r="A56" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="17" t="s">
+      <c r="B56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="7">
@@ -6422,17 +6984,17 @@
       <c r="F56" s="7">
         <v>1.22</v>
       </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24">
+      <c r="G56" s="19"/>
+      <c r="H56" s="19">
         <v>2.27</v>
       </c>
-      <c r="I56" s="24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J56" s="24">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K56" s="24">
+      <c r="I56" s="19">
+        <v>0.55</v>
+      </c>
+      <c r="J56" s="19">
+        <v>1.16</v>
+      </c>
+      <c r="K56" s="19">
         <v>0.23</v>
       </c>
       <c r="L56" s="7">
@@ -6451,44 +7013,44 @@
         <v>0.44</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="18"/>
+      <c r="R56" s="23"/>
       <c r="S56" s="7">
-        <f>SUM(E56:R56)</f>
-        <v>94.079999999999984</v>
-      </c>
-      <c r="U56" s="12">
-        <f>E56/(L56+M56+N56)</f>
-        <v>0.45348837209302317</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>94.08</v>
+      </c>
+      <c r="U56" s="11">
+        <f t="shared" si="3"/>
+        <v>0.453488372093023</v>
+      </c>
+    </row>
+    <row r="57" ht="13.2" spans="1:21">
+      <c r="A57" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="7">
         <v>21.7</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24">
+      <c r="G57" s="19"/>
+      <c r="H57" s="19">
         <v>6.4</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="19">
         <v>0.95</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="19">
         <v>3.41</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="19">
         <v>1.39</v>
       </c>
       <c r="L57" s="7">
@@ -6507,44 +7069,44 @@
         <v>0.47</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="18"/>
+      <c r="R57" s="23"/>
       <c r="S57" s="7">
-        <f>SUM(E57:R57)</f>
+        <f t="shared" si="0"/>
         <v>96.67</v>
       </c>
-      <c r="U57" s="12">
-        <f>E57/(L57+M57+N57)</f>
-        <v>0.43820678513731826</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="U57" s="11">
+        <f t="shared" si="3"/>
+        <v>0.438206785137318</v>
+      </c>
+    </row>
+    <row r="58" ht="13.2" spans="1:21">
+      <c r="A58" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="B58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="7">
         <v>21.35</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24">
+      <c r="G58" s="19"/>
+      <c r="H58" s="19">
         <v>5.13</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="19">
         <v>1.45</v>
       </c>
-      <c r="J58" s="24">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="K58" s="24">
+      <c r="J58" s="19">
+        <v>2.51</v>
+      </c>
+      <c r="K58" s="19">
         <v>0.42</v>
       </c>
       <c r="L58" s="7">
@@ -6559,44 +7121,44 @@
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="18"/>
+      <c r="R58" s="23"/>
       <c r="S58" s="7">
-        <f>SUM(E58:R58)</f>
+        <f t="shared" si="0"/>
         <v>91.7</v>
       </c>
-      <c r="U58" s="12">
-        <f>E58/(L58+M58+N58)</f>
-        <v>0.40986753695526973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="U58" s="11">
+        <f t="shared" si="3"/>
+        <v>0.40986753695527</v>
+      </c>
+    </row>
+    <row r="59" ht="13.2" spans="1:21">
+      <c r="A59" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="7">
         <v>25.42</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24">
+      <c r="G59" s="19"/>
+      <c r="H59" s="19">
         <v>1.31</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="K59" s="24"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19">
+        <v>2.18</v>
+      </c>
+      <c r="K59" s="19"/>
       <c r="L59" s="7">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="M59" s="7">
         <v>45.1</v>
@@ -6607,42 +7169,42 @@
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="18"/>
+      <c r="R59" s="23"/>
       <c r="S59" s="7">
-        <f>SUM(E59:R59)</f>
+        <f t="shared" si="0"/>
         <v>92.47</v>
       </c>
-      <c r="U59" s="12">
-        <f>E59/(L59+M59+N59)</f>
-        <v>0.39993706733794843</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="U59" s="11">
+        <f t="shared" si="3"/>
+        <v>0.399937067337948</v>
+      </c>
+    </row>
+    <row r="60" ht="13.2" spans="1:21">
+      <c r="A60" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="B60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="7">
         <v>26.25</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24">
+      <c r="G60" s="19"/>
+      <c r="H60" s="19">
+        <v>1.11</v>
+      </c>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19">
         <v>0.5</v>
       </c>
-      <c r="K60" s="24"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="7">
         <v>0.88</v>
       </c>
@@ -6653,52 +7215,52 @@
         <v>7.22</v>
       </c>
       <c r="O60" s="7">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="P60" s="7">
         <v>0.61</v>
       </c>
       <c r="Q60" s="7"/>
-      <c r="R60" s="18"/>
+      <c r="R60" s="23"/>
       <c r="S60" s="7">
-        <f>SUM(E60:R60)</f>
-        <v>98.759999999999991</v>
-      </c>
-      <c r="U60" s="12">
-        <f>E60/(L60+M60+N60)</f>
-        <v>0.37971936930420941</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>98.76</v>
+      </c>
+      <c r="U60" s="11">
+        <f t="shared" si="3"/>
+        <v>0.379719369304209</v>
+      </c>
+    </row>
+    <row r="61" ht="13.2" spans="1:21">
+      <c r="A61" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="7">
         <v>22.28</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="24">
+      <c r="G61" s="19">
         <v>0.32</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="19">
         <v>3.19</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="19">
         <v>1.28</v>
       </c>
-      <c r="J61" s="24">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="K61" s="24"/>
+      <c r="J61" s="19">
+        <v>4.15</v>
+      </c>
+      <c r="K61" s="19"/>
       <c r="L61" s="7">
         <v>0.83</v>
       </c>
@@ -6715,46 +7277,46 @@
         <v>0.88</v>
       </c>
       <c r="Q61" s="7"/>
-      <c r="R61" s="18"/>
+      <c r="R61" s="23"/>
       <c r="S61" s="7">
-        <f>SUM(E61:R61)</f>
+        <f t="shared" si="0"/>
         <v>99.67</v>
       </c>
-      <c r="U61" s="12">
-        <f>E61/(L61+M61+N61)</f>
-        <v>0.35180798989420498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="U61" s="11">
+        <f t="shared" si="3"/>
+        <v>0.351807989894205</v>
+      </c>
+    </row>
+    <row r="62" ht="13.2" spans="1:21">
+      <c r="A62" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="17" t="s">
+      <c r="B62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E62" s="7">
         <v>18.46</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="24">
+      <c r="G62" s="19">
         <v>0.44</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="19">
         <v>4.96</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="19">
         <v>2.73</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="19">
         <v>3.33</v>
       </c>
-      <c r="K62" s="24">
+      <c r="K62" s="19">
         <v>1.79</v>
       </c>
       <c r="L62" s="7">
@@ -6773,48 +7335,48 @@
         <v>0.47</v>
       </c>
       <c r="Q62" s="7"/>
-      <c r="R62" s="18"/>
+      <c r="R62" s="23"/>
       <c r="S62" s="7">
-        <f>SUM(E62:R62)</f>
+        <f t="shared" si="0"/>
         <v>93.71</v>
       </c>
-      <c r="U62" s="12">
-        <f>E62/(L62+M62+N62)</f>
-        <v>0.34140928426114303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="U62" s="11">
+        <f t="shared" si="3"/>
+        <v>0.341409284261143</v>
+      </c>
+    </row>
+    <row r="63" ht="13.2" spans="1:21">
+      <c r="A63" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="B63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="7">
         <v>17.98</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24">
+      <c r="G63" s="19"/>
+      <c r="H63" s="19">
         <v>3.19</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="19">
         <v>0.47</v>
       </c>
-      <c r="J63" s="24">
+      <c r="J63" s="19">
         <v>1.87</v>
       </c>
-      <c r="K63" s="24">
+      <c r="K63" s="19">
         <v>0.33</v>
       </c>
       <c r="L63" s="7">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="M63" s="7">
         <v>44</v>
@@ -6829,42 +7391,42 @@
         <v>0.66</v>
       </c>
       <c r="Q63" s="7"/>
-      <c r="R63" s="18"/>
+      <c r="R63" s="23"/>
       <c r="S63" s="7">
-        <f>SUM(E63:R63)</f>
+        <f t="shared" si="0"/>
         <v>90.17</v>
       </c>
-      <c r="U63" s="12">
-        <f>E63/(L63+M63+N63)</f>
-        <v>0.30305073318725773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="U63" s="11">
+        <f t="shared" si="3"/>
+        <v>0.303050733187258</v>
+      </c>
+    </row>
+    <row r="64" ht="13.2" spans="1:21">
+      <c r="A64" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="B64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="7">
         <v>20.14</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24">
+      <c r="G64" s="19"/>
+      <c r="H64" s="19">
         <v>1.48</v>
       </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24">
+      <c r="I64" s="19"/>
+      <c r="J64" s="19">
         <v>1.34</v>
       </c>
-      <c r="K64" s="24"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="7">
         <v>10.41</v>
       </c>
@@ -6885,41 +7447,41 @@
         <v>2.58</v>
       </c>
       <c r="S64" s="7">
-        <f>SUM(E64:R64)</f>
-        <v>99.820000000000007</v>
-      </c>
-      <c r="T64" s="10"/>
-      <c r="U64" s="12">
-        <f>E64/(L64+M64+N64)</f>
-        <v>0.28640500568828214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>99.82</v>
+      </c>
+      <c r="T64" s="9"/>
+      <c r="U64" s="11">
+        <f t="shared" si="3"/>
+        <v>0.286405005688282</v>
+      </c>
+    </row>
+    <row r="65" ht="13.2" spans="1:21">
+      <c r="A65" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="7">
         <v>17.11</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J65" s="24">
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19">
+        <v>1.11</v>
+      </c>
+      <c r="J65" s="19">
         <v>3.65</v>
       </c>
-      <c r="K65" s="24"/>
+      <c r="K65" s="19"/>
       <c r="L65" s="7">
         <v>1.34</v>
       </c>
@@ -6931,45 +7493,45 @@
         <v>14.13</v>
       </c>
       <c r="P65" s="7">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="Q65" s="7"/>
-      <c r="R65" s="18"/>
+      <c r="R65" s="23"/>
       <c r="S65" s="7">
-        <f>SUM(E65:R65)</f>
+        <f t="shared" si="0"/>
         <v>96.92</v>
       </c>
-      <c r="U65" s="12">
-        <f>E65/(L65+M65+N65)</f>
-        <v>0.2861204013377926</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="U65" s="11">
+        <f t="shared" si="3"/>
+        <v>0.286120401337793</v>
+      </c>
+    </row>
+    <row r="66" ht="13.2" spans="1:21">
+      <c r="A66" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="B66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="7">
         <v>19.79</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24">
+      <c r="G66" s="19"/>
+      <c r="H66" s="19">
         <v>1.44</v>
       </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24">
+      <c r="I66" s="19"/>
+      <c r="J66" s="19">
         <v>0.7</v>
       </c>
-      <c r="K66" s="24"/>
+      <c r="K66" s="19"/>
       <c r="L66" s="7">
         <v>10.57</v>
       </c>
@@ -6993,41 +7555,41 @@
         <f>SUM(E66:R66)</f>
         <v>99.82</v>
       </c>
-      <c r="T66" s="10"/>
-      <c r="U66" s="12">
-        <f>E66/(L66+M66+N66)</f>
-        <v>0.27353144436765725</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="T66" s="9"/>
+      <c r="U66" s="11">
+        <f t="shared" si="3"/>
+        <v>0.273531444367657</v>
+      </c>
+    </row>
+    <row r="67" ht="13.2" spans="1:21">
+      <c r="A67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="17" t="s">
+      <c r="B67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="7">
         <v>16.71</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24">
+      <c r="G67" s="19"/>
+      <c r="H67" s="19">
         <v>1.87</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24">
+      <c r="I67" s="19"/>
+      <c r="J67" s="19">
         <v>0.45</v>
       </c>
-      <c r="K67" s="24">
+      <c r="K67" s="19">
         <v>0.19</v>
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7">
-        <v>70.209999999999994</v>
+        <v>70.21</v>
       </c>
       <c r="N67" s="7">
         <v>6.69</v>
@@ -7039,44 +7601,44 @@
         <v>0.68</v>
       </c>
       <c r="Q67" s="7"/>
-      <c r="R67" s="18"/>
+      <c r="R67" s="23"/>
       <c r="S67" s="7">
         <f>SUM(E67:R67)</f>
         <v>98.57</v>
       </c>
-      <c r="U67" s="12">
-        <f>E67/(L67+M67+N67)</f>
-        <v>0.21729518855656701</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="17" t="s">
+      <c r="U67" s="11">
+        <f t="shared" si="3"/>
+        <v>0.217295188556567</v>
+      </c>
+    </row>
+    <row r="68" ht="13.2" spans="1:21">
+      <c r="A68" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="7">
         <v>12.41</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24">
+      <c r="G68" s="19"/>
+      <c r="H68" s="19">
         <v>5.24</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I68" s="19">
         <v>0.89</v>
       </c>
-      <c r="J68" s="24">
+      <c r="J68" s="19">
         <v>2.25</v>
       </c>
-      <c r="K68" s="24">
+      <c r="K68" s="19">
         <v>0.76</v>
       </c>
       <c r="L68" s="7">
@@ -7093,47 +7655,47 @@
         <v>0.64</v>
       </c>
       <c r="Q68" s="7"/>
-      <c r="R68" s="18"/>
+      <c r="R68" s="23"/>
       <c r="S68" s="7">
         <f>SUM(E68:R68)</f>
         <v>94.68</v>
       </c>
-      <c r="U68" s="12">
-        <f>E68/(L68+M68+N68)</f>
-        <v>0.17119602703821216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="17" t="s">
+      <c r="U68" s="11">
+        <f t="shared" si="3"/>
+        <v>0.171196027038212</v>
+      </c>
+    </row>
+    <row r="69" ht="13.2" spans="1:21">
+      <c r="A69" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="7">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24">
+      <c r="G69" s="19"/>
+      <c r="H69" s="19">
         <v>3.19</v>
       </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K69" s="24"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19">
+        <v>1.11</v>
+      </c>
+      <c r="K69" s="19"/>
       <c r="L69" s="7">
         <v>3.14</v>
       </c>
       <c r="M69" s="7">
-        <v>32.450000000000003</v>
+        <v>32.45</v>
       </c>
       <c r="N69" s="7">
         <v>30.62</v>
@@ -7150,41 +7712,41 @@
       </c>
       <c r="S69" s="7">
         <f>SUM(E69:R69)</f>
-        <v>98.240000000000009</v>
-      </c>
-      <c r="U69" s="12">
-        <f>E69/(L69+M69+N69)</f>
-        <v>6.962694457030659E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="17" t="s">
+        <v>98.24</v>
+      </c>
+      <c r="U69" s="11">
+        <f t="shared" si="3"/>
+        <v>0.0696269445703066</v>
+      </c>
+    </row>
+    <row r="70" ht="13.2" spans="1:21">
+      <c r="A70" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E70" s="7">
         <v>3.72</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="24">
+      <c r="G70" s="19">
         <v>0.4</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H70" s="19">
         <v>3.01</v>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24">
+      <c r="I70" s="19"/>
+      <c r="J70" s="19">
         <v>1.18</v>
       </c>
-      <c r="K70" s="24"/>
+      <c r="K70" s="19"/>
       <c r="L70" s="7">
         <v>3.6</v>
       </c>
@@ -7192,7 +7754,7 @@
         <v>29.92</v>
       </c>
       <c r="N70" s="7">
-        <v>35.450000000000003</v>
+        <v>35.45</v>
       </c>
       <c r="O70" s="7">
         <v>6.04</v>
@@ -7206,47 +7768,158 @@
       </c>
       <c r="S70" s="7">
         <f>SUM(E70:R70)</f>
-        <v>99.890000000000015</v>
-      </c>
-      <c r="T70" s="10"/>
-      <c r="U70" s="12">
-        <f>E70/(L70+M70+N70)</f>
-        <v>5.3936494127881693E-2</v>
-      </c>
+        <v>99.89</v>
+      </c>
+      <c r="T70" s="9"/>
+      <c r="U70" s="11">
+        <f t="shared" si="3"/>
+        <v>0.0539364941278817</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="7:11">
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="7:11">
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+    </row>
+    <row r="76" spans="7:11">
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+    </row>
+    <row r="77" spans="7:11">
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+    </row>
+    <row r="78" spans="7:11">
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+    </row>
+    <row r="79" spans="7:11">
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="7:11">
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="7:11">
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+    </row>
+    <row r="82" spans="7:11">
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="7:11">
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="7:11">
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="7:11">
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+    </row>
+    <row r="86" spans="7:11">
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U71" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="铅钡"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U71">
-      <sortCondition descending="1" ref="U1:U71"/>
+  <autoFilter ref="A1:U71">
+    <sortState ref="A1:U71">
+      <sortCondition ref="U1:U71" descending="1"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R71">
+  <sortState ref="A2:R71">
     <sortCondition ref="A2:A71"/>
   </sortState>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81481481481481" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16" width="9.6328125" customWidth="1"/>
+    <col min="1" max="2" width="9.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="16" width="9.62962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7254,51 +7927,51 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -7336,9 +8009,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -7358,7 +8031,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7">
@@ -7368,9 +8041,9 @@
       <c r="O3" s="7"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -7401,7 +8074,7 @@
         <v>39.58</v>
       </c>
       <c r="L4" s="7">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="M4" s="7">
         <v>2.68</v>
@@ -7412,9 +8085,9 @@
       <c r="O4" s="7"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -7448,23 +8121,23 @@
         <v>8.31</v>
       </c>
       <c r="M5" s="7">
-        <v>8.4499999999999993</v>
+        <v>8.45</v>
       </c>
       <c r="N5" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7">
-        <v>64.290000000000006</v>
+        <v>64.29</v>
       </c>
       <c r="D6" s="7">
         <v>1.2</v>
@@ -7504,33 +8177,33 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>93.17</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>1.35</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>0.64</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0.21</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>1.52</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>0.27</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>1.73</v>
       </c>
       <c r="K7" s="5"/>
@@ -7542,9 +8215,9 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
@@ -7557,11 +8230,11 @@
         <v>0.98</v>
       </c>
       <c r="F8" s="7">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="I8" s="7">
         <v>0.24</v>
@@ -7580,59 +8253,59 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>51.12</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0.23</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>0.89</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2.12</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>9.01</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>21.24</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>11.34</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>1.46</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>0.31</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>0</v>
       </c>
-      <c r="P9" s="9">
-        <v>2.2599999999999998</v>
+      <c r="P9" s="8">
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>